--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed5/result_data_RandomForest.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.351800000000003</v>
+        <v>6.416200000000004</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.5891</v>
+        <v>-11.95970000000001</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.32269999999999</v>
+        <v>-9.0725</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.502700000000002</v>
+        <v>-7.309100000000001</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.60580000000001</v>
+        <v>-21.61810000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.464499999999999</v>
+        <v>5.9338</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.682099999999998</v>
+        <v>-7.691999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.349299999999996</v>
+        <v>-8.373599999999994</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -726,7 +726,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.646000000000001</v>
+        <v>-8.545699999999998</v>
       </c>
       <c r="E17" t="n">
         <v>15.63</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.8296</v>
+        <v>-11.8787</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.07009999999999</v>
+        <v>-12.4477</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,13 +873,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.246900000000004</v>
+        <v>4.207700000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.46070000000001</v>
+        <v>-8.612700000000007</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.75139999999999</v>
+        <v>-21.66159999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.90989999999999</v>
+        <v>-13.54659999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.953500000000003</v>
+        <v>4.792600000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.51720000000001</v>
+        <v>-21.48730000000002</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.109000000000004</v>
+        <v>9.067400000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.5635</v>
+        <v>-19.6855</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.687000000000004</v>
+        <v>-7.586999999999998</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.02</v>
+        <v>9.144199999999998</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5049</v>
+        <v>-19.45420000000001</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.23879999999999</v>
+        <v>-13.54889999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.885199999999998</v>
+        <v>5.7323</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.69860000000001</v>
+        <v>-21.71240000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.8283</v>
+        <v>-12.23039999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.299000000000002</v>
+        <v>5.436700000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.65259999999999</v>
+        <v>-21.71849999999998</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.215</v>
+        <v>-22.1969</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.9846</v>
+        <v>-22.10510000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.213599999999997</v>
+        <v>4.825199999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.90259999999999</v>
+        <v>-13.3273</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.495299999999995</v>
+        <v>-7.437699999999998</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.47019999999999</v>
+        <v>-21.50649999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5907</v>
+        <v>-21.62059999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.00810000000001</v>
+        <v>-21.85709999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.24230000000001</v>
+        <v>-10.91100000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.215799999999999</v>
+        <v>-6.231700000000001</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.217899999999998</v>
+        <v>6.2043</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.67209999999998</v>
+        <v>-21.6796</v>
       </c>
       <c r="B83" t="n">
-        <v>5.538100000000002</v>
+        <v>5.727700000000002</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.89879999999999</v>
+        <v>-13.91329999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.0638</v>
+        <v>-22.087</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.9975</v>
+        <v>-11.4061</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.038799999999998</v>
+        <v>-6.109699999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.56060000000001</v>
+        <v>-21.5823</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.0132</v>
+        <v>-11.4796</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.485</v>
+        <v>-11.7221</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.3032</v>
+        <v>-21.2944</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.5865</v>
+        <v>-13.8018</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.38499999999998</v>
+        <v>-20.36419999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.412199999999998</v>
+        <v>5.625099999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.268000000000001</v>
+        <v>8.170100000000005</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.796</v>
+        <v>-13.7496</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
